--- a/tests/fixtures/MAGENTA_01.xlsx
+++ b/tests/fixtures/MAGENTA_01.xlsx
@@ -1067,7 +1067,7 @@
     <t>Aarhus Enhed</t>
   </si>
   <si>
-    <t>Rådhuspladsen 2</t>
+    <t>Rådhuspladsen</t>
   </si>
   <si>
     <t>01e479c4-66ef-42aa-877e-15f0512f792c</t>
@@ -2544,9 +2544,7 @@
       <c r="I4" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="J4" t="s" s="7">
-        <v>7</v>
-      </c>
+      <c r="J4" s="7"/>
       <c r="K4" t="s" s="7">
         <v>20</v>
       </c>

--- a/tests/fixtures/MAGENTA_01.xlsx
+++ b/tests/fixtures/MAGENTA_01.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="362">
   <si>
     <t>operation</t>
   </si>
@@ -1104,25 +1104,15 @@
   </si>
   <si>
     <t>København K</t>
-  </si>
-  <si>
-    <t>3cd8be77-043c-4044-a9c1-8e4261fd7da6</t>
-  </si>
-  <si>
-    <t>Ikke eksisterende</t>
-  </si>
-  <si>
-    <t>Inaktiv</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="0" formatCode="General"/>
-    <numFmt numFmtId="59" formatCode="dd/mm/yyyy"/>
-    <numFmt numFmtId="60" formatCode="dd/mm/yyyy hh:mm"/>
+    <numFmt numFmtId="59" formatCode="dd/mm/yyyy hh:mm"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -1141,7 +1131,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1154,8 +1144,14 @@
         <bgColor auto="1"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="12"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -1208,13 +1204,100 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="13"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="13"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="13"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="13"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="13"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="13"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="13"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="13"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="13"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -1224,37 +1307,58 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="1" fontId="0" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="1" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="59" fontId="0" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="59" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="60" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="59" fontId="0" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
@@ -1275,19 +1379,19 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="60" fontId="0" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="59" fontId="0" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -1310,6 +1414,8 @@
       <rgbColor rgb="ffbdc0bf"/>
       <rgbColor rgb="ffa5a5a5"/>
       <rgbColor rgb="ff3f3f3f"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffaaaaaa"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -1447,13 +1553,7 @@
           <a:effectLst/>
         </a:effectStyle>
         <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
+          <a:effectLst/>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
@@ -1552,10 +1652,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Cambria"/>
-            <a:ea typeface="Cambria"/>
-            <a:cs typeface="Cambria"/>
-            <a:sym typeface="Cambria"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1810,13 +1910,7 @@
           <a:prstDash val="solid"/>
           <a:round/>
         </a:ln>
-        <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
-            <a:srgbClr val="000000">
-              <a:alpha val="38000"/>
-            </a:srgbClr>
-          </a:outerShdw>
-        </a:effectLst>
+        <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
       <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
@@ -2129,10 +2223,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Cambria"/>
-            <a:ea typeface="Cambria"/>
-            <a:cs typeface="Cambria"/>
-            <a:sym typeface="Cambria"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -2383,7 +2477,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -2553,6 +2647,96 @@
       </c>
       <c r="M4" s="8"/>
     </row>
+    <row r="5" ht="13.55" customHeight="1">
+      <c r="A5" s="9"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="11"/>
+    </row>
+    <row r="6" ht="13.55" customHeight="1">
+      <c r="A6" s="12"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="14"/>
+    </row>
+    <row r="7" ht="13.55" customHeight="1">
+      <c r="A7" s="12"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="14"/>
+    </row>
+    <row r="8" ht="13.55" customHeight="1">
+      <c r="A8" s="12"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="14"/>
+    </row>
+    <row r="9" ht="13.55" customHeight="1">
+      <c r="A9" s="12"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="14"/>
+    </row>
+    <row r="10" ht="13.55" customHeight="1">
+      <c r="A10" s="15"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="17"/>
+    </row>
   </sheetData>
   <pageMargins left="0.747917" right="0.747917" top="0.984028" bottom="0.984028" header="0.511806" footer="0.511806"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
@@ -2564,25 +2748,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15.4" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="8.67188" style="9" customWidth="1"/>
-    <col min="2" max="2" width="32.6719" style="9" customWidth="1"/>
-    <col min="3" max="3" width="18.1719" style="9" customWidth="1"/>
-    <col min="4" max="4" width="15.5" style="9" customWidth="1"/>
-    <col min="5" max="5" width="2.67188" style="9" customWidth="1"/>
-    <col min="6" max="6" width="15.5" style="9" customWidth="1"/>
-    <col min="7" max="7" width="25.5" style="9" customWidth="1"/>
-    <col min="8" max="8" width="32.6719" style="9" customWidth="1"/>
-    <col min="9" max="9" width="8.35156" style="9" customWidth="1"/>
-    <col min="10" max="10" width="14.8516" style="9" customWidth="1"/>
-    <col min="11" max="11" width="14.6719" style="9" customWidth="1"/>
-    <col min="12" max="12" width="15.1719" style="9" customWidth="1"/>
-    <col min="13" max="256" width="8.85156" style="9" customWidth="1"/>
+    <col min="1" max="1" width="8.67188" style="18" customWidth="1"/>
+    <col min="2" max="2" width="32.6719" style="18" customWidth="1"/>
+    <col min="3" max="3" width="18.1719" style="18" customWidth="1"/>
+    <col min="4" max="4" width="15.5" style="18" customWidth="1"/>
+    <col min="5" max="5" width="2.67188" style="18" customWidth="1"/>
+    <col min="6" max="6" width="15.5" style="18" customWidth="1"/>
+    <col min="7" max="7" width="25.5" style="18" customWidth="1"/>
+    <col min="8" max="8" width="32.6719" style="18" customWidth="1"/>
+    <col min="9" max="9" width="8.35156" style="18" customWidth="1"/>
+    <col min="10" max="10" width="14.8516" style="18" customWidth="1"/>
+    <col min="11" max="11" width="14.6719" style="18" customWidth="1"/>
+    <col min="12" max="12" width="15.1719" style="18" customWidth="1"/>
+    <col min="13" max="256" width="8.85156" style="18" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.1" customHeight="1">
@@ -2633,8 +2817,8 @@
       <c r="C2" t="s" s="4">
         <v>45</v>
       </c>
-      <c r="D2" s="10">
-        <v>42136</v>
+      <c r="D2" t="s" s="4">
+        <v>14</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="5">
@@ -2669,8 +2853,8 @@
       <c r="C3" t="s" s="7">
         <v>45</v>
       </c>
-      <c r="D3" s="11">
-        <v>42137</v>
+      <c r="D3" t="s" s="7">
+        <v>23</v>
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="8">
@@ -2694,6 +2878,104 @@
       <c r="L3" t="s" s="7">
         <v>52</v>
       </c>
+    </row>
+    <row r="4" ht="13.55" customHeight="1">
+      <c r="A4" s="9"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="11"/>
+    </row>
+    <row r="5" ht="13.55" customHeight="1">
+      <c r="A5" s="12"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="14"/>
+    </row>
+    <row r="6" ht="13.55" customHeight="1">
+      <c r="A6" s="12"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="14"/>
+    </row>
+    <row r="7" ht="13.55" customHeight="1">
+      <c r="A7" s="12"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="14"/>
+    </row>
+    <row r="8" ht="13.55" customHeight="1">
+      <c r="A8" s="12"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="14"/>
+    </row>
+    <row r="9" ht="13.55" customHeight="1">
+      <c r="A9" s="12"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="14"/>
+    </row>
+    <row r="10" ht="13.55" customHeight="1">
+      <c r="A10" s="15"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.747917" right="0.747917" top="0.984028" bottom="0.984028" header="0.511806" footer="0.511806"/>
@@ -2706,33 +2988,33 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15.4" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="8.17188" style="12" customWidth="1"/>
-    <col min="2" max="2" width="32.6719" style="12" customWidth="1"/>
-    <col min="3" max="3" width="4.35156" style="12" customWidth="1"/>
-    <col min="4" max="4" width="19.1719" style="12" customWidth="1"/>
-    <col min="5" max="5" width="6.17188" style="12" customWidth="1"/>
-    <col min="6" max="6" width="16" style="12" customWidth="1"/>
-    <col min="7" max="7" width="25.8516" style="12" customWidth="1"/>
-    <col min="8" max="8" width="19.1719" style="12" customWidth="1"/>
-    <col min="9" max="9" width="8.67188" style="12" customWidth="1"/>
-    <col min="10" max="10" width="8.35156" style="12" customWidth="1"/>
-    <col min="11" max="11" width="31.3516" style="12" customWidth="1"/>
-    <col min="12" max="12" width="25.3516" style="12" customWidth="1"/>
-    <col min="13" max="13" width="11.5" style="12" customWidth="1"/>
-    <col min="14" max="14" width="11.6719" style="12" customWidth="1"/>
-    <col min="15" max="15" width="32.1719" style="12" customWidth="1"/>
-    <col min="16" max="16" width="25.8516" style="12" customWidth="1"/>
-    <col min="17" max="17" width="10.1719" style="12" customWidth="1"/>
-    <col min="18" max="18" width="32.6719" style="12" customWidth="1"/>
-    <col min="19" max="19" width="7.5" style="12" customWidth="1"/>
-    <col min="20" max="20" width="8.67188" style="12" customWidth="1"/>
-    <col min="21" max="256" width="8.85156" style="12" customWidth="1"/>
+    <col min="1" max="1" width="8.17188" style="19" customWidth="1"/>
+    <col min="2" max="2" width="32.6719" style="19" customWidth="1"/>
+    <col min="3" max="3" width="4.35156" style="19" customWidth="1"/>
+    <col min="4" max="4" width="19.1719" style="19" customWidth="1"/>
+    <col min="5" max="5" width="6.17188" style="19" customWidth="1"/>
+    <col min="6" max="6" width="16" style="19" customWidth="1"/>
+    <col min="7" max="7" width="25.8516" style="19" customWidth="1"/>
+    <col min="8" max="8" width="19.1719" style="19" customWidth="1"/>
+    <col min="9" max="9" width="8.67188" style="19" customWidth="1"/>
+    <col min="10" max="10" width="8.35156" style="19" customWidth="1"/>
+    <col min="11" max="11" width="31.3516" style="19" customWidth="1"/>
+    <col min="12" max="12" width="25.3516" style="19" customWidth="1"/>
+    <col min="13" max="13" width="11.5" style="19" customWidth="1"/>
+    <col min="14" max="14" width="11.6719" style="19" customWidth="1"/>
+    <col min="15" max="15" width="32.1719" style="19" customWidth="1"/>
+    <col min="16" max="16" width="25.8516" style="19" customWidth="1"/>
+    <col min="17" max="17" width="10.1719" style="19" customWidth="1"/>
+    <col min="18" max="18" width="32.6719" style="19" customWidth="1"/>
+    <col min="19" max="19" width="7.5" style="19" customWidth="1"/>
+    <col min="20" max="20" width="8.67188" style="19" customWidth="1"/>
+    <col min="21" max="256" width="8.85156" style="19" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.1" customHeight="1">
@@ -2859,7 +3141,7 @@
         <v>79</v>
       </c>
       <c r="C3" s="6"/>
-      <c r="D3" s="13">
+      <c r="D3" s="20">
         <v>42370</v>
       </c>
       <c r="E3" s="6"/>
@@ -2890,6 +3172,160 @@
       <c r="T3" t="s" s="7">
         <v>78</v>
       </c>
+    </row>
+    <row r="4" ht="13.55" customHeight="1">
+      <c r="A4" s="9"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="10"/>
+      <c r="S4" s="10"/>
+      <c r="T4" s="11"/>
+    </row>
+    <row r="5" ht="13.55" customHeight="1">
+      <c r="A5" s="12"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="13"/>
+      <c r="P5" s="13"/>
+      <c r="Q5" s="13"/>
+      <c r="R5" s="13"/>
+      <c r="S5" s="13"/>
+      <c r="T5" s="14"/>
+    </row>
+    <row r="6" ht="13.55" customHeight="1">
+      <c r="A6" s="12"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="13"/>
+      <c r="P6" s="13"/>
+      <c r="Q6" s="13"/>
+      <c r="R6" s="13"/>
+      <c r="S6" s="13"/>
+      <c r="T6" s="14"/>
+    </row>
+    <row r="7" ht="13.55" customHeight="1">
+      <c r="A7" s="12"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="13"/>
+      <c r="P7" s="13"/>
+      <c r="Q7" s="13"/>
+      <c r="R7" s="13"/>
+      <c r="S7" s="13"/>
+      <c r="T7" s="14"/>
+    </row>
+    <row r="8" ht="13.55" customHeight="1">
+      <c r="A8" s="12"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="13"/>
+      <c r="P8" s="13"/>
+      <c r="Q8" s="13"/>
+      <c r="R8" s="13"/>
+      <c r="S8" s="13"/>
+      <c r="T8" s="14"/>
+    </row>
+    <row r="9" ht="13.55" customHeight="1">
+      <c r="A9" s="12"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="13"/>
+      <c r="O9" s="13"/>
+      <c r="P9" s="13"/>
+      <c r="Q9" s="13"/>
+      <c r="R9" s="13"/>
+      <c r="S9" s="13"/>
+      <c r="T9" s="14"/>
+    </row>
+    <row r="10" ht="13.55" customHeight="1">
+      <c r="A10" s="15"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="16"/>
+      <c r="N10" s="16"/>
+      <c r="O10" s="16"/>
+      <c r="P10" s="16"/>
+      <c r="Q10" s="16"/>
+      <c r="R10" s="16"/>
+      <c r="S10" s="16"/>
+      <c r="T10" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.747917" right="0.747917" top="0.984028" bottom="0.984028" header="0.511806" footer="0.511806"/>
@@ -2902,34 +3338,34 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:U7"/>
+  <dimension ref="A1:U10"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15.4" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="8.17188" style="14" customWidth="1"/>
-    <col min="2" max="2" width="32.5" style="14" customWidth="1"/>
-    <col min="3" max="3" width="4.35156" style="14" customWidth="1"/>
-    <col min="4" max="4" width="19.1719" style="14" customWidth="1"/>
-    <col min="5" max="5" width="6.17188" style="14" customWidth="1"/>
-    <col min="6" max="6" width="15.1719" style="14" customWidth="1"/>
-    <col min="7" max="7" width="25.8516" style="14" customWidth="1"/>
-    <col min="8" max="8" width="9.17188" style="14" customWidth="1"/>
-    <col min="9" max="9" width="31.3516" style="14" customWidth="1"/>
-    <col min="10" max="10" width="25.3516" style="14" customWidth="1"/>
-    <col min="11" max="11" width="11.5" style="14" customWidth="1"/>
-    <col min="12" max="12" width="11.6719" style="14" customWidth="1"/>
-    <col min="13" max="13" width="31.3516" style="14" customWidth="1"/>
-    <col min="14" max="14" width="25.8516" style="14" customWidth="1"/>
-    <col min="15" max="15" width="10.1719" style="14" customWidth="1"/>
-    <col min="16" max="16" width="31.8516" style="14" customWidth="1"/>
-    <col min="17" max="17" width="7.5" style="14" customWidth="1"/>
-    <col min="18" max="18" width="31.6719" style="14" customWidth="1"/>
-    <col min="19" max="19" width="14.6719" style="14" customWidth="1"/>
-    <col min="20" max="20" width="8.67188" style="14" customWidth="1"/>
-    <col min="21" max="21" width="15.1719" style="14" customWidth="1"/>
-    <col min="22" max="256" width="8.85156" style="14" customWidth="1"/>
+    <col min="1" max="1" width="8.17188" style="21" customWidth="1"/>
+    <col min="2" max="2" width="32.5" style="21" customWidth="1"/>
+    <col min="3" max="3" width="4.35156" style="21" customWidth="1"/>
+    <col min="4" max="4" width="19.1719" style="21" customWidth="1"/>
+    <col min="5" max="5" width="6.17188" style="21" customWidth="1"/>
+    <col min="6" max="6" width="15.1719" style="21" customWidth="1"/>
+    <col min="7" max="7" width="25.8516" style="21" customWidth="1"/>
+    <col min="8" max="8" width="9.17188" style="21" customWidth="1"/>
+    <col min="9" max="9" width="31.3516" style="21" customWidth="1"/>
+    <col min="10" max="10" width="25.3516" style="21" customWidth="1"/>
+    <col min="11" max="11" width="11.5" style="21" customWidth="1"/>
+    <col min="12" max="12" width="11.6719" style="21" customWidth="1"/>
+    <col min="13" max="13" width="31.3516" style="21" customWidth="1"/>
+    <col min="14" max="14" width="25.8516" style="21" customWidth="1"/>
+    <col min="15" max="15" width="10.1719" style="21" customWidth="1"/>
+    <col min="16" max="16" width="31.8516" style="21" customWidth="1"/>
+    <col min="17" max="17" width="7.5" style="21" customWidth="1"/>
+    <col min="18" max="18" width="31.6719" style="21" customWidth="1"/>
+    <col min="19" max="19" width="14.6719" style="21" customWidth="1"/>
+    <col min="20" max="20" width="8.67188" style="21" customWidth="1"/>
+    <col min="21" max="21" width="15.1719" style="21" customWidth="1"/>
+    <col min="22" max="256" width="8.85156" style="21" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.1" customHeight="1">
@@ -3300,7 +3736,7 @@
         <v>110</v>
       </c>
       <c r="C7" s="6"/>
-      <c r="D7" s="13">
+      <c r="D7" s="20">
         <v>42370</v>
       </c>
       <c r="E7" s="6"/>
@@ -3328,6 +3764,75 @@
       <c r="U7" t="s" s="7">
         <v>92</v>
       </c>
+    </row>
+    <row r="8" ht="13.55" customHeight="1">
+      <c r="A8" s="9"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="10"/>
+      <c r="R8" s="10"/>
+      <c r="S8" s="10"/>
+      <c r="T8" s="10"/>
+      <c r="U8" s="11"/>
+    </row>
+    <row r="9" ht="13.55" customHeight="1">
+      <c r="A9" s="12"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="13"/>
+      <c r="O9" s="13"/>
+      <c r="P9" s="13"/>
+      <c r="Q9" s="13"/>
+      <c r="R9" s="13"/>
+      <c r="S9" s="13"/>
+      <c r="T9" s="13"/>
+      <c r="U9" s="14"/>
+    </row>
+    <row r="10" ht="13.55" customHeight="1">
+      <c r="A10" s="15"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="16"/>
+      <c r="N10" s="16"/>
+      <c r="O10" s="16"/>
+      <c r="P10" s="16"/>
+      <c r="Q10" s="16"/>
+      <c r="R10" s="16"/>
+      <c r="S10" s="16"/>
+      <c r="T10" s="16"/>
+      <c r="U10" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.747917" right="0.747917" top="0.984028" bottom="0.984028" header="0.511806" footer="0.511806"/>
@@ -3346,35 +3851,35 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15.4" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="8.17188" style="15" customWidth="1"/>
-    <col min="2" max="2" width="33.5" style="15" customWidth="1"/>
-    <col min="3" max="3" width="4.35156" style="15" customWidth="1"/>
-    <col min="4" max="4" width="19.1719" style="15" customWidth="1"/>
-    <col min="5" max="5" width="6.17188" style="15" customWidth="1"/>
-    <col min="6" max="6" width="21.6719" style="15" customWidth="1"/>
-    <col min="7" max="7" width="25.8516" style="15" customWidth="1"/>
-    <col min="8" max="8" width="31.3516" style="15" customWidth="1"/>
-    <col min="9" max="9" width="25.3516" style="15" customWidth="1"/>
-    <col min="10" max="10" width="11.5" style="15" customWidth="1"/>
-    <col min="11" max="11" width="11.6719" style="15" customWidth="1"/>
-    <col min="12" max="12" width="31.3516" style="15" customWidth="1"/>
-    <col min="13" max="13" width="25.8516" style="15" customWidth="1"/>
-    <col min="14" max="14" width="10.1719" style="15" customWidth="1"/>
-    <col min="15" max="15" width="31.8516" style="15" customWidth="1"/>
-    <col min="16" max="16" width="7.5" style="15" customWidth="1"/>
-    <col min="17" max="17" width="8.67188" style="15" customWidth="1"/>
-    <col min="18" max="18" width="32.5" style="15" customWidth="1"/>
-    <col min="19" max="19" width="13.8516" style="15" customWidth="1"/>
-    <col min="20" max="20" width="8.67188" style="15" customWidth="1"/>
-    <col min="21" max="21" width="6.5" style="15" customWidth="1"/>
-    <col min="22" max="22" width="48" style="15" customWidth="1"/>
-    <col min="23" max="23" width="3.85156" style="15" customWidth="1"/>
-    <col min="24" max="24" width="32.1719" style="15" customWidth="1"/>
-    <col min="25" max="25" width="17.3516" style="15" customWidth="1"/>
-    <col min="26" max="26" width="12.1719" style="15" customWidth="1"/>
-    <col min="27" max="27" width="9" style="15" customWidth="1"/>
-    <col min="28" max="28" width="12.6719" style="15" customWidth="1"/>
-    <col min="29" max="256" width="8.85156" style="15" customWidth="1"/>
+    <col min="1" max="1" width="8.17188" style="22" customWidth="1"/>
+    <col min="2" max="2" width="33.5" style="22" customWidth="1"/>
+    <col min="3" max="3" width="4.35156" style="22" customWidth="1"/>
+    <col min="4" max="4" width="19.1719" style="22" customWidth="1"/>
+    <col min="5" max="5" width="6.17188" style="22" customWidth="1"/>
+    <col min="6" max="6" width="21.6719" style="22" customWidth="1"/>
+    <col min="7" max="7" width="25.8516" style="22" customWidth="1"/>
+    <col min="8" max="8" width="31.3516" style="22" customWidth="1"/>
+    <col min="9" max="9" width="25.3516" style="22" customWidth="1"/>
+    <col min="10" max="10" width="11.5" style="22" customWidth="1"/>
+    <col min="11" max="11" width="11.6719" style="22" customWidth="1"/>
+    <col min="12" max="12" width="31.3516" style="22" customWidth="1"/>
+    <col min="13" max="13" width="25.8516" style="22" customWidth="1"/>
+    <col min="14" max="14" width="10.1719" style="22" customWidth="1"/>
+    <col min="15" max="15" width="31.8516" style="22" customWidth="1"/>
+    <col min="16" max="16" width="7.5" style="22" customWidth="1"/>
+    <col min="17" max="17" width="8.67188" style="22" customWidth="1"/>
+    <col min="18" max="18" width="32.5" style="22" customWidth="1"/>
+    <col min="19" max="19" width="13.8516" style="22" customWidth="1"/>
+    <col min="20" max="20" width="8.67188" style="22" customWidth="1"/>
+    <col min="21" max="21" width="6.5" style="22" customWidth="1"/>
+    <col min="22" max="22" width="48" style="22" customWidth="1"/>
+    <col min="23" max="23" width="3.85156" style="22" customWidth="1"/>
+    <col min="24" max="24" width="32.1719" style="22" customWidth="1"/>
+    <col min="25" max="25" width="17.3516" style="22" customWidth="1"/>
+    <col min="26" max="26" width="12.1719" style="22" customWidth="1"/>
+    <col min="27" max="27" width="9" style="22" customWidth="1"/>
+    <col min="28" max="28" width="12.6719" style="22" customWidth="1"/>
+    <col min="29" max="256" width="8.85156" style="22" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.1" customHeight="1">
@@ -7371,7 +7876,7 @@
         <v>309</v>
       </c>
       <c r="C60" s="6"/>
-      <c r="D60" s="13">
+      <c r="D60" s="20">
         <v>42370</v>
       </c>
       <c r="E60" s="6"/>
@@ -7415,7 +7920,7 @@
         <v>310</v>
       </c>
       <c r="C61" s="6"/>
-      <c r="D61" s="13">
+      <c r="D61" s="20">
         <v>42370</v>
       </c>
       <c r="E61" s="6"/>
@@ -7462,31 +7967,31 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15.4" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="8.17188" style="16" customWidth="1"/>
-    <col min="2" max="2" width="33.8516" style="16" customWidth="1"/>
-    <col min="3" max="3" width="4.35156" style="16" customWidth="1"/>
-    <col min="4" max="4" width="19.1719" style="16" customWidth="1"/>
-    <col min="5" max="5" width="6.17188" style="16" customWidth="1"/>
-    <col min="6" max="6" width="15.1719" style="16" customWidth="1"/>
-    <col min="7" max="7" width="17.3516" style="16" customWidth="1"/>
-    <col min="8" max="8" width="12.3516" style="16" customWidth="1"/>
-    <col min="9" max="9" width="12.6719" style="16" customWidth="1"/>
-    <col min="10" max="10" width="18" style="16" customWidth="1"/>
-    <col min="11" max="11" width="32.8516" style="16" customWidth="1"/>
-    <col min="12" max="12" width="25.3516" style="16" customWidth="1"/>
-    <col min="13" max="13" width="11.5" style="16" customWidth="1"/>
-    <col min="14" max="14" width="32.6719" style="16" customWidth="1"/>
-    <col min="15" max="15" width="14.1719" style="16" customWidth="1"/>
-    <col min="16" max="16" width="19.6719" style="16" customWidth="1"/>
-    <col min="17" max="17" width="23.3516" style="16" customWidth="1"/>
-    <col min="18" max="18" width="8.17188" style="16" customWidth="1"/>
-    <col min="19" max="256" width="8.85156" style="16" customWidth="1"/>
+    <col min="1" max="1" width="8.17188" style="23" customWidth="1"/>
+    <col min="2" max="2" width="33.8516" style="23" customWidth="1"/>
+    <col min="3" max="3" width="4.35156" style="23" customWidth="1"/>
+    <col min="4" max="4" width="19.1719" style="23" customWidth="1"/>
+    <col min="5" max="5" width="6.17188" style="23" customWidth="1"/>
+    <col min="6" max="6" width="15.1719" style="23" customWidth="1"/>
+    <col min="7" max="7" width="17.3516" style="23" customWidth="1"/>
+    <col min="8" max="8" width="12.3516" style="23" customWidth="1"/>
+    <col min="9" max="9" width="12.6719" style="23" customWidth="1"/>
+    <col min="10" max="10" width="18" style="23" customWidth="1"/>
+    <col min="11" max="11" width="32.8516" style="23" customWidth="1"/>
+    <col min="12" max="12" width="25.3516" style="23" customWidth="1"/>
+    <col min="13" max="13" width="11.5" style="23" customWidth="1"/>
+    <col min="14" max="14" width="32.6719" style="23" customWidth="1"/>
+    <col min="15" max="15" width="14.1719" style="23" customWidth="1"/>
+    <col min="16" max="16" width="19.6719" style="23" customWidth="1"/>
+    <col min="17" max="17" width="23.3516" style="23" customWidth="1"/>
+    <col min="18" max="18" width="8.17188" style="23" customWidth="1"/>
+    <col min="19" max="256" width="8.85156" style="23" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.1" customHeight="1">
@@ -7592,6 +8097,166 @@
       <c r="R2" t="s" s="4">
         <v>21</v>
       </c>
+    </row>
+    <row r="3" ht="13.55" customHeight="1">
+      <c r="A3" s="9"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="11"/>
+    </row>
+    <row r="4" ht="13.55" customHeight="1">
+      <c r="A4" s="12"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="13"/>
+      <c r="P4" s="13"/>
+      <c r="Q4" s="13"/>
+      <c r="R4" s="14"/>
+    </row>
+    <row r="5" ht="13.55" customHeight="1">
+      <c r="A5" s="12"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="13"/>
+      <c r="P5" s="13"/>
+      <c r="Q5" s="13"/>
+      <c r="R5" s="14"/>
+    </row>
+    <row r="6" ht="13.55" customHeight="1">
+      <c r="A6" s="12"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="13"/>
+      <c r="P6" s="13"/>
+      <c r="Q6" s="13"/>
+      <c r="R6" s="14"/>
+    </row>
+    <row r="7" ht="13.55" customHeight="1">
+      <c r="A7" s="12"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="13"/>
+      <c r="P7" s="13"/>
+      <c r="Q7" s="13"/>
+      <c r="R7" s="14"/>
+    </row>
+    <row r="8" ht="13.55" customHeight="1">
+      <c r="A8" s="12"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="13"/>
+      <c r="P8" s="13"/>
+      <c r="Q8" s="13"/>
+      <c r="R8" s="14"/>
+    </row>
+    <row r="9" ht="13.55" customHeight="1">
+      <c r="A9" s="12"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="13"/>
+      <c r="O9" s="13"/>
+      <c r="P9" s="13"/>
+      <c r="Q9" s="13"/>
+      <c r="R9" s="14"/>
+    </row>
+    <row r="10" ht="13.55" customHeight="1">
+      <c r="A10" s="15"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="16"/>
+      <c r="N10" s="16"/>
+      <c r="O10" s="16"/>
+      <c r="P10" s="16"/>
+      <c r="Q10" s="16"/>
+      <c r="R10" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.747917" right="0.747917" top="0.984028" bottom="0.984028" header="0.511806" footer="0.511806"/>
@@ -7604,27 +8269,27 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15.4" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="8.17188" style="17" customWidth="1"/>
-    <col min="2" max="2" width="32.6719" style="17" customWidth="1"/>
-    <col min="3" max="3" width="4.35156" style="17" customWidth="1"/>
-    <col min="4" max="4" width="19.1719" style="17" customWidth="1"/>
-    <col min="5" max="5" width="6.17188" style="17" customWidth="1"/>
-    <col min="6" max="6" width="15.1719" style="17" customWidth="1"/>
-    <col min="7" max="7" width="17.3516" style="17" customWidth="1"/>
-    <col min="8" max="8" width="32.8516" style="17" customWidth="1"/>
-    <col min="9" max="9" width="25.3516" style="17" customWidth="1"/>
-    <col min="10" max="10" width="11.5" style="17" customWidth="1"/>
-    <col min="11" max="11" width="9.67188" style="17" customWidth="1"/>
-    <col min="12" max="12" width="8.17188" style="17" customWidth="1"/>
-    <col min="13" max="13" width="9.17188" style="17" customWidth="1"/>
-    <col min="14" max="14" width="13.1719" style="17" customWidth="1"/>
-    <col min="15" max="256" width="8.85156" style="17" customWidth="1"/>
+    <col min="1" max="1" width="8.17188" style="24" customWidth="1"/>
+    <col min="2" max="2" width="32.6719" style="24" customWidth="1"/>
+    <col min="3" max="3" width="4.35156" style="24" customWidth="1"/>
+    <col min="4" max="4" width="19.1719" style="24" customWidth="1"/>
+    <col min="5" max="5" width="6.17188" style="24" customWidth="1"/>
+    <col min="6" max="6" width="15.1719" style="24" customWidth="1"/>
+    <col min="7" max="7" width="17.3516" style="24" customWidth="1"/>
+    <col min="8" max="8" width="32.8516" style="24" customWidth="1"/>
+    <col min="9" max="9" width="25.3516" style="24" customWidth="1"/>
+    <col min="10" max="10" width="11.5" style="24" customWidth="1"/>
+    <col min="11" max="11" width="9.67188" style="24" customWidth="1"/>
+    <col min="12" max="12" width="8.17188" style="24" customWidth="1"/>
+    <col min="13" max="13" width="9.17188" style="24" customWidth="1"/>
+    <col min="14" max="14" width="13.1719" style="24" customWidth="1"/>
+    <col min="15" max="256" width="8.85156" style="24" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.1" customHeight="1">
@@ -7746,6 +8411,118 @@
       </c>
       <c r="M3" s="6"/>
       <c r="N3" s="6"/>
+    </row>
+    <row r="4" ht="13.55" customHeight="1">
+      <c r="A4" s="9"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="11"/>
+    </row>
+    <row r="5" ht="13.55" customHeight="1">
+      <c r="A5" s="12"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="14"/>
+    </row>
+    <row r="6" ht="13.55" customHeight="1">
+      <c r="A6" s="12"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="14"/>
+    </row>
+    <row r="7" ht="13.55" customHeight="1">
+      <c r="A7" s="12"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="14"/>
+    </row>
+    <row r="8" ht="13.55" customHeight="1">
+      <c r="A8" s="12"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="14"/>
+    </row>
+    <row r="9" ht="13.55" customHeight="1">
+      <c r="A9" s="12"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="14"/>
+    </row>
+    <row r="10" ht="13.55" customHeight="1">
+      <c r="A10" s="15"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="16"/>
+      <c r="N10" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.747917" right="0.747917" top="0.984028" bottom="0.984028" header="0.511806" footer="0.511806"/>
@@ -7758,29 +8535,29 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:P7"/>
+  <dimension ref="A1:P9"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15.4" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="8.17188" style="18" customWidth="1"/>
-    <col min="2" max="2" width="32.5" style="18" customWidth="1"/>
-    <col min="3" max="3" width="14.7734" style="18" customWidth="1"/>
-    <col min="4" max="4" width="19.1719" style="18" customWidth="1"/>
-    <col min="5" max="5" width="9.67188" style="18" customWidth="1"/>
-    <col min="6" max="6" width="15.1719" style="18" customWidth="1"/>
-    <col min="7" max="7" width="14.1719" style="18" customWidth="1"/>
-    <col min="8" max="8" width="32.8516" style="18" customWidth="1"/>
-    <col min="9" max="9" width="13.3516" style="18" customWidth="1"/>
-    <col min="10" max="10" width="10.5" style="18" customWidth="1"/>
-    <col min="11" max="11" width="10.5" style="18" customWidth="1"/>
-    <col min="12" max="12" width="8.17188" style="18" customWidth="1"/>
-    <col min="13" max="13" width="29.8516" style="18" customWidth="1"/>
-    <col min="14" max="14" width="31.1719" style="18" customWidth="1"/>
-    <col min="15" max="15" width="32.6719" style="18" customWidth="1"/>
-    <col min="16" max="16" width="8.17188" style="18" customWidth="1"/>
-    <col min="17" max="256" width="8.85156" style="18" customWidth="1"/>
+    <col min="1" max="1" width="8.17188" style="25" customWidth="1"/>
+    <col min="2" max="2" width="32.5" style="25" customWidth="1"/>
+    <col min="3" max="3" width="14.8516" style="25" customWidth="1"/>
+    <col min="4" max="4" width="19.1719" style="25" customWidth="1"/>
+    <col min="5" max="5" width="9.67188" style="25" customWidth="1"/>
+    <col min="6" max="6" width="15.1719" style="25" customWidth="1"/>
+    <col min="7" max="7" width="14.1719" style="25" customWidth="1"/>
+    <col min="8" max="8" width="32.8516" style="25" customWidth="1"/>
+    <col min="9" max="9" width="13.3516" style="25" customWidth="1"/>
+    <col min="10" max="10" width="10.5" style="25" customWidth="1"/>
+    <col min="11" max="11" width="10.5" style="25" customWidth="1"/>
+    <col min="12" max="12" width="8.17188" style="25" customWidth="1"/>
+    <col min="13" max="13" width="29.8516" style="25" customWidth="1"/>
+    <col min="14" max="14" width="31.1719" style="25" customWidth="1"/>
+    <col min="15" max="15" width="32.6719" style="25" customWidth="1"/>
+    <col min="16" max="16" width="8.17188" style="25" customWidth="1"/>
+    <col min="17" max="256" width="8.85156" style="25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.1" customHeight="1">
@@ -7790,7 +8567,7 @@
       <c r="B1" t="s" s="2">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="19">
+      <c r="C1" t="s" s="26">
         <v>2</v>
       </c>
       <c r="D1" t="s" s="2">
@@ -7840,8 +8617,8 @@
       <c r="B2" t="s" s="4">
         <v>340</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="21">
+      <c r="C2" s="27"/>
+      <c r="D2" s="28">
         <v>42370</v>
       </c>
       <c r="E2" s="3"/>
@@ -7882,8 +8659,8 @@
       <c r="B3" t="s" s="7">
         <v>346</v>
       </c>
-      <c r="C3" s="22"/>
-      <c r="D3" s="13">
+      <c r="C3" s="29"/>
+      <c r="D3" s="20">
         <v>42370</v>
       </c>
       <c r="E3" s="6"/>
@@ -7922,7 +8699,7 @@
       <c r="B4" t="s" s="7">
         <v>350</v>
       </c>
-      <c r="C4" t="s" s="23">
+      <c r="C4" t="s" s="30">
         <v>351</v>
       </c>
       <c r="D4" t="s" s="7">
@@ -7956,7 +8733,7 @@
       <c r="B5" t="s" s="7">
         <v>353</v>
       </c>
-      <c r="C5" s="22"/>
+      <c r="C5" s="29"/>
       <c r="D5" t="s" s="7">
         <v>354</v>
       </c>
@@ -7979,7 +8756,7 @@
       <c r="K5" t="s" s="7">
         <v>357</v>
       </c>
-      <c r="L5" s="24">
+      <c r="L5" s="31">
         <v>33369696</v>
       </c>
       <c r="M5" s="6"/>
@@ -7998,7 +8775,7 @@
       <c r="B6" t="s" s="7">
         <v>52</v>
       </c>
-      <c r="C6" s="22"/>
+      <c r="C6" s="29"/>
       <c r="D6" t="s" s="7">
         <v>330</v>
       </c>
@@ -8021,7 +8798,7 @@
       <c r="K6" t="s" s="7">
         <v>361</v>
       </c>
-      <c r="L6" s="24">
+      <c r="L6" s="31">
         <v>33369696</v>
       </c>
       <c r="M6" s="6"/>
@@ -8035,43 +8812,59 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" ht="12.9" customHeight="1">
-      <c r="A7" s="6"/>
-      <c r="B7" t="s" s="7">
-        <v>362</v>
-      </c>
-      <c r="C7" t="s" s="23">
-        <v>363</v>
-      </c>
-      <c r="D7" t="s" s="7">
-        <v>330</v>
-      </c>
-      <c r="E7" s="11">
-        <v>41858</v>
-      </c>
-      <c r="F7" t="s" s="7">
-        <v>48</v>
-      </c>
-      <c r="G7" t="s" s="7">
-        <v>355</v>
-      </c>
-      <c r="H7" t="s" s="7">
-        <v>164</v>
-      </c>
-      <c r="I7" s="6"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" t="s" s="7">
-        <v>350</v>
-      </c>
-      <c r="O7" t="s" s="7">
-        <v>20</v>
-      </c>
-      <c r="P7" t="s" s="7">
-        <v>364</v>
-      </c>
+    <row r="7" ht="13.55" customHeight="1">
+      <c r="A7" s="9"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="11"/>
+    </row>
+    <row r="8" ht="13.55" customHeight="1">
+      <c r="A8" s="12"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="13"/>
+      <c r="P8" s="14"/>
+    </row>
+    <row r="9" ht="13.55" customHeight="1">
+      <c r="A9" s="15"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="16"/>
+      <c r="N9" s="16"/>
+      <c r="O9" s="16"/>
+      <c r="P9" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.747917" right="0.747917" top="0.984028" bottom="0.984028" header="0.511806" footer="0.511806"/>

--- a/tests/fixtures/MAGENTA_01.xlsx
+++ b/tests/fixtures/MAGENTA_01.xlsx
@@ -2574,7 +2574,7 @@
         <v>21</v>
       </c>
       <c r="M2" s="5">
-        <v>10119001010</v>
+        <v>101001010</v>
       </c>
     </row>
     <row r="3" ht="12.9" customHeight="1">
@@ -2611,7 +2611,7 @@
         <v>21</v>
       </c>
       <c r="M3" s="8">
-        <v>101120101010</v>
+        <v>1011101010</v>
       </c>
     </row>
     <row r="4" ht="12.9" customHeight="1">

--- a/tests/fixtures/MAGENTA_01.xlsx
+++ b/tests/fixtures/MAGENTA_01.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1407" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1373" uniqueCount="342">
   <si>
     <t xml:space="preserve">operation</t>
   </si>
@@ -200,9 +200,6 @@
     <t xml:space="preserve">514e8a8e-2d3f-4789-9237-0492688d5024</t>
   </si>
   <si>
-    <t xml:space="preserve">brugerref_bvn</t>
-  </si>
-  <si>
     <t xml:space="preserve">beskrivelse</t>
   </si>
   <si>
@@ -212,15 +209,6 @@
     <t xml:space="preserve">ophavsret</t>
   </si>
   <si>
-    <t xml:space="preserve">brugerref</t>
-  </si>
-  <si>
-    <t xml:space="preserve">registreret</t>
-  </si>
-  <si>
-    <t xml:space="preserve">livscykluskode</t>
-  </si>
-  <si>
     <t xml:space="preserve">ansvarlig_type</t>
   </si>
   <si>
@@ -242,9 +230,6 @@
     <t xml:space="preserve">publiceret</t>
   </si>
   <si>
-    <t xml:space="preserve">import</t>
-  </si>
-  <si>
     <t xml:space="preserve">7cd9277c-fcb5-49ce-9a50-37f1f35b6a84</t>
   </si>
   <si>
@@ -254,21 +239,15 @@
     <t xml:space="preserve">Organisation</t>
   </si>
   <si>
+    <t xml:space="preserve">OIO standard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fa3b2acd-914f-4c22-bd38-9cec62a8e966</t>
+  </si>
+  <si>
     <t xml:space="preserve">erik.helweg@kommuneproces.dk</t>
   </si>
   <si>
-    <t xml:space="preserve">OIO standard</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fa3b2acd-914f-4c22-bd38-9cec62a8e966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2016-04-11 12:12:29.335588+02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rettet</t>
-  </si>
-  <si>
     <t xml:space="preserve">organisation</t>
   </si>
   <si>
@@ -962,24 +941,12 @@
     <t xml:space="preserve">AD</t>
   </si>
   <si>
-    <t xml:space="preserve">test@magenta-aps.dk</t>
-  </si>
-  <si>
     <t xml:space="preserve">ActiveDirectory</t>
   </si>
   <si>
     <t xml:space="preserve">Omsorgssystem</t>
   </si>
   <si>
-    <t xml:space="preserve">00000000-0000-0000-0000-000000000000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2016-03-07 19:57:05.102696+01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Opstaaet</t>
-  </si>
-  <si>
     <t xml:space="preserve">Aarhus Kommune</t>
   </si>
   <si>
@@ -995,16 +962,10 @@
     <t xml:space="preserve">1976-01-01 00:00:00+01</t>
   </si>
   <si>
-    <t xml:space="preserve">2016-04-07 20:26:20.822797+02</t>
-  </si>
-  <si>
     <t xml:space="preserve">1999-11-15 00:00:00+01</t>
   </si>
   <si>
     <t xml:space="preserve">Magenta ApS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2016-04-07 18:32:40.910236+02</t>
   </si>
   <si>
     <t xml:space="preserve">enhedsnavn</t>
@@ -1352,22 +1313,23 @@
   <sheetFormatPr defaultRowHeight="15.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="9.64"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="39.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="39.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="5.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="22.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="7.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="17.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="11.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="11.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="37.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="37.23"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="20.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="20.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="37.47"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="10.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="11.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="36.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="9.64"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="18.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="18.04"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="259" min="17" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="260" style="0" width="8.59"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1690,12 +1652,12 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="15.49"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="2.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="15.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="25.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="25.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="32.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="8.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="14.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="14.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="15.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="15.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="256" min="13" style="1" width="8.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="257" style="0" width="8.83"/>
   </cols>
@@ -1924,196 +1886,154 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:O10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="O1" activeCellId="0" sqref="O1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="8.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="32.68"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="4.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="19.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="6.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="25.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="19.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="8.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="8.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="31.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="25.35"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="11.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="11.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="32.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="25.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="10.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="32.68"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="7.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="8.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="256" min="21" style="1" width="8.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="257" style="0" width="8.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="32.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="4.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="19.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="6.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="19.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="8.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="11.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="32.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="25.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="10.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="32.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="7.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="251" min="16" style="1" width="8.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="252" style="0" width="8.83"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>5</v>
+        <v>57</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="P1" s="2" t="s">
         <v>66</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" s="2" t="s">
+      <c r="L2" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="M2" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>27</v>
-      </c>
+      <c r="N2" s="3"/>
       <c r="O2" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="S2" s="3"/>
-      <c r="T2" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="15" t="n">
+        <v>76</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="15" t="n">
         <v>42370</v>
       </c>
-      <c r="E3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="2" t="s">
+        <v>77</v>
+      </c>
       <c r="F3" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="G3" s="3"/>
-      <c r="H3" s="2" t="s">
-        <v>85</v>
-      </c>
+      <c r="H3" s="3"/>
       <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
+      <c r="J3" s="2" t="s">
+        <v>79</v>
+      </c>
       <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
+      <c r="L3" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="N3" s="3"/>
       <c r="O3" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="S3" s="3"/>
-      <c r="T3" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="6"/>
+      <c r="A4" s="7"/>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
@@ -2127,15 +2047,10 @@
       <c r="L4" s="7"/>
       <c r="M4" s="7"/>
       <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="7"/>
-      <c r="R4" s="7"/>
-      <c r="S4" s="7"/>
-      <c r="T4" s="8"/>
+      <c r="O4" s="8"/>
     </row>
     <row r="5" customFormat="false" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="9"/>
+      <c r="A5" s="10"/>
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
       <c r="D5" s="10"/>
@@ -2149,15 +2064,10 @@
       <c r="L5" s="10"/>
       <c r="M5" s="10"/>
       <c r="N5" s="10"/>
-      <c r="O5" s="10"/>
-      <c r="P5" s="10"/>
-      <c r="Q5" s="10"/>
-      <c r="R5" s="10"/>
-      <c r="S5" s="10"/>
-      <c r="T5" s="11"/>
+      <c r="O5" s="11"/>
     </row>
     <row r="6" customFormat="false" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="9"/>
+      <c r="A6" s="10"/>
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
@@ -2171,15 +2081,10 @@
       <c r="L6" s="10"/>
       <c r="M6" s="10"/>
       <c r="N6" s="10"/>
-      <c r="O6" s="10"/>
-      <c r="P6" s="10"/>
-      <c r="Q6" s="10"/>
-      <c r="R6" s="10"/>
-      <c r="S6" s="10"/>
-      <c r="T6" s="11"/>
+      <c r="O6" s="11"/>
     </row>
     <row r="7" customFormat="false" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="9"/>
+      <c r="A7" s="10"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
@@ -2193,15 +2098,10 @@
       <c r="L7" s="10"/>
       <c r="M7" s="10"/>
       <c r="N7" s="10"/>
-      <c r="O7" s="10"/>
-      <c r="P7" s="10"/>
-      <c r="Q7" s="10"/>
-      <c r="R7" s="10"/>
-      <c r="S7" s="10"/>
-      <c r="T7" s="11"/>
+      <c r="O7" s="11"/>
     </row>
     <row r="8" customFormat="false" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="9"/>
+      <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
@@ -2215,15 +2115,10 @@
       <c r="L8" s="10"/>
       <c r="M8" s="10"/>
       <c r="N8" s="10"/>
-      <c r="O8" s="10"/>
-      <c r="P8" s="10"/>
-      <c r="Q8" s="10"/>
-      <c r="R8" s="10"/>
-      <c r="S8" s="10"/>
-      <c r="T8" s="11"/>
+      <c r="O8" s="11"/>
     </row>
     <row r="9" customFormat="false" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="9"/>
+      <c r="A9" s="10"/>
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
@@ -2237,15 +2132,10 @@
       <c r="L9" s="10"/>
       <c r="M9" s="10"/>
       <c r="N9" s="10"/>
-      <c r="O9" s="10"/>
-      <c r="P9" s="10"/>
-      <c r="Q9" s="10"/>
-      <c r="R9" s="10"/>
-      <c r="S9" s="10"/>
-      <c r="T9" s="11"/>
+      <c r="O9" s="11"/>
     </row>
     <row r="10" customFormat="false" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="12"/>
+      <c r="A10" s="13"/>
       <c r="B10" s="13"/>
       <c r="C10" s="13"/>
       <c r="D10" s="13"/>
@@ -2259,12 +2149,7 @@
       <c r="L10" s="13"/>
       <c r="M10" s="13"/>
       <c r="N10" s="13"/>
-      <c r="O10" s="13"/>
-      <c r="P10" s="13"/>
-      <c r="Q10" s="13"/>
-      <c r="R10" s="13"/>
-      <c r="S10" s="13"/>
-      <c r="T10" s="14"/>
+      <c r="O10" s="14"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -2284,8 +2169,8 @@
   </sheetPr>
   <dimension ref="A1:P1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="L1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N14" activeCellId="0" sqref="N14"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2300,13 +2185,14 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="36.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="29.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="11.95"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="36.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="36.73"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="8.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="37.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="16.93"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="10.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="17.54"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="251" min="17" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="252" style="0" width="8.59"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2326,262 +2212,262 @@
         <v>5</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="M1" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="O1" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="J1" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="P1" s="2" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="2" t="s">
         <v>27</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="L2" s="3"/>
       <c r="M2" s="2" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="2" t="s">
         <v>27</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="L3" s="3"/>
       <c r="M3" s="2" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="2" t="s">
         <v>27</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="L4" s="3"/>
       <c r="M4" s="2" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="2" t="s">
         <v>27</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="L5" s="3"/>
       <c r="M5" s="2" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="2" t="s">
         <v>27</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="L6" s="3"/>
       <c r="M6" s="2" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="15" t="n">
@@ -2589,7 +2475,7 @@
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="2" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
@@ -2599,189 +2485,189 @@
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
       <c r="M7" s="2" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="N7" s="3"/>
       <c r="O7" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
     <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -2808,10 +2694,10 @@
   </sheetPr>
   <dimension ref="A1:X74"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="U1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="E69" activeCellId="0" sqref="E69"/>
+      <selection pane="topLeft" activeCell="U1" activeCellId="0" sqref="U1"/>
+      <selection pane="bottomLeft" activeCell="X1" activeCellId="0" sqref="X1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2825,14 +2711,14 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="36.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="29.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="11.95"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="36.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="36.73"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="11.95"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="37.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="37.96"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="37.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="10.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="7.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="17" style="1" width="54.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="17" style="1" width="54.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="10.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="37.47"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="1" width="20.21"/>
@@ -2840,6 +2726,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="1" width="10.61"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="1" width="14.74"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="252" min="25" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="253" style="0" width="8.59"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2859,109 +2746,109 @@
         <v>5</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="L1" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="O1" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="L1" s="2" t="s">
+      <c r="P1" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="U1" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="O1" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="P1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>125</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>27</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="K2" s="3"/>
       <c r="L2" s="2" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="P2" s="3"/>
       <c r="Q2" s="3"/>
       <c r="R2" s="2" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="S2" s="3"/>
       <c r="T2" s="3"/>
@@ -2972,45 +2859,45 @@
     </row>
     <row r="3" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>27</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="K3" s="3"/>
       <c r="L3" s="2" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="P3" s="3"/>
       <c r="Q3" s="3"/>
@@ -3024,50 +2911,50 @@
     </row>
     <row r="4" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>27</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="K4" s="3"/>
       <c r="L4" s="2" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="P4" s="3"/>
       <c r="Q4" s="3"/>
       <c r="R4" s="2" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="S4" s="3"/>
       <c r="T4" s="3"/>
@@ -3078,50 +2965,50 @@
     </row>
     <row r="5" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>27</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="K5" s="3"/>
       <c r="L5" s="2" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="P5" s="3"/>
       <c r="Q5" s="3"/>
       <c r="R5" s="2" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="S5" s="3"/>
       <c r="T5" s="3"/>
@@ -3132,50 +3019,50 @@
     </row>
     <row r="6" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>27</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="K6" s="3"/>
       <c r="L6" s="2" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="P6" s="3"/>
       <c r="Q6" s="3"/>
       <c r="R6" s="2" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="3"/>
@@ -3186,50 +3073,50 @@
     </row>
     <row r="7" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>27</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="K7" s="3"/>
       <c r="L7" s="2" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="P7" s="3"/>
       <c r="Q7" s="3"/>
       <c r="R7" s="2" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="3"/>
@@ -3240,45 +3127,45 @@
     </row>
     <row r="8" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>27</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="K8" s="3"/>
       <c r="L8" s="2" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="P8" s="3"/>
       <c r="Q8" s="3"/>
@@ -3292,45 +3179,45 @@
     </row>
     <row r="9" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>27</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="K9" s="3"/>
       <c r="L9" s="2" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="P9" s="3"/>
       <c r="Q9" s="3"/>
@@ -3344,45 +3231,45 @@
     </row>
     <row r="10" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>27</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="K10" s="3"/>
       <c r="L10" s="2" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="P10" s="3"/>
       <c r="Q10" s="3"/>
@@ -3396,45 +3283,45 @@
     </row>
     <row r="11" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>27</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="K11" s="3"/>
       <c r="L11" s="2" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
@@ -3448,45 +3335,45 @@
     </row>
     <row r="12" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>27</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="K12" s="3"/>
       <c r="L12" s="2" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="P12" s="3"/>
       <c r="Q12" s="3"/>
@@ -3500,45 +3387,45 @@
     </row>
     <row r="13" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>27</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="K13" s="3"/>
       <c r="L13" s="2" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="P13" s="3"/>
       <c r="Q13" s="3"/>
@@ -3552,45 +3439,45 @@
     </row>
     <row r="14" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>27</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="K14" s="3"/>
       <c r="L14" s="2" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="P14" s="3"/>
       <c r="Q14" s="3"/>
@@ -3604,45 +3491,45 @@
     </row>
     <row r="15" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>27</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="K15" s="3"/>
       <c r="L15" s="2" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="P15" s="3"/>
       <c r="Q15" s="3"/>
@@ -3656,51 +3543,51 @@
     </row>
     <row r="16" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>27</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="2" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="2" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="U16" s="2" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
@@ -3708,55 +3595,55 @@
     </row>
     <row r="17" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>27</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="K17" s="3"/>
       <c r="L17" s="2" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="P17" s="3"/>
       <c r="Q17" s="3"/>
       <c r="R17" s="3"/>
       <c r="S17" s="3"/>
       <c r="T17" s="2" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="U17" s="2" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="V17" s="3"/>
       <c r="W17" s="3"/>
@@ -3764,55 +3651,55 @@
     </row>
     <row r="18" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>27</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="K18" s="3"/>
       <c r="L18" s="2" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="P18" s="3"/>
       <c r="Q18" s="3"/>
       <c r="R18" s="3"/>
       <c r="S18" s="3"/>
       <c r="T18" s="2" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="U18" s="2" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="V18" s="3"/>
       <c r="W18" s="3"/>
@@ -3820,55 +3707,55 @@
     </row>
     <row r="19" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>27</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="K19" s="3"/>
       <c r="L19" s="2" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="2" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="U19" s="2" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
@@ -3876,55 +3763,55 @@
     </row>
     <row r="20" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>27</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="K20" s="3"/>
       <c r="L20" s="2" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="P20" s="3"/>
       <c r="Q20" s="3"/>
       <c r="R20" s="3"/>
       <c r="S20" s="3"/>
       <c r="T20" s="2" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="U20" s="2" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="V20" s="3"/>
       <c r="W20" s="3"/>
@@ -3932,55 +3819,55 @@
     </row>
     <row r="21" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>27</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="K21" s="3"/>
       <c r="L21" s="2" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="P21" s="3"/>
       <c r="Q21" s="3"/>
       <c r="R21" s="3"/>
       <c r="S21" s="3"/>
       <c r="T21" s="2" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="U21" s="2" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="V21" s="3"/>
       <c r="W21" s="3"/>
@@ -3988,52 +3875,52 @@
     </row>
     <row r="22" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>27</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="K22" s="3"/>
       <c r="L22" s="2" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="P22" s="3"/>
       <c r="Q22" s="3"/>
       <c r="R22" s="3"/>
       <c r="S22" s="3"/>
       <c r="T22" s="2" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="U22" s="3"/>
       <c r="V22" s="3"/>
@@ -4042,55 +3929,55 @@
     </row>
     <row r="23" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>27</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="K23" s="3"/>
       <c r="L23" s="2" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="P23" s="3"/>
       <c r="Q23" s="3"/>
       <c r="R23" s="3"/>
       <c r="S23" s="3"/>
       <c r="T23" s="2" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="U23" s="2" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="V23" s="3"/>
       <c r="W23" s="3"/>
@@ -4098,55 +3985,55 @@
     </row>
     <row r="24" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="B24" s="3"/>
       <c r="C24" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>27</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="K24" s="3"/>
       <c r="L24" s="2" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="O24" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="P24" s="3"/>
       <c r="Q24" s="3"/>
       <c r="R24" s="3"/>
       <c r="S24" s="3"/>
       <c r="T24" s="2" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="U24" s="2" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="V24" s="3"/>
       <c r="W24" s="3"/>
@@ -4154,55 +4041,55 @@
     </row>
     <row r="25" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="B25" s="3"/>
       <c r="C25" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>27</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="K25" s="3"/>
       <c r="L25" s="2" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="O25" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="P25" s="3"/>
       <c r="Q25" s="3"/>
       <c r="R25" s="3"/>
       <c r="S25" s="3"/>
       <c r="T25" s="2" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="U25" s="2" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="V25" s="3"/>
       <c r="W25" s="3"/>
@@ -4210,55 +4097,55 @@
     </row>
     <row r="26" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="B26" s="3"/>
       <c r="C26" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>27</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="K26" s="3"/>
       <c r="L26" s="2" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="P26" s="3"/>
       <c r="Q26" s="3"/>
       <c r="R26" s="3"/>
       <c r="S26" s="3"/>
       <c r="T26" s="2" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="U26" s="2" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="V26" s="3"/>
       <c r="W26" s="3"/>
@@ -4266,52 +4153,52 @@
     </row>
     <row r="27" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B27" s="3"/>
       <c r="C27" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>27</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="K27" s="3"/>
       <c r="L27" s="2" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="O27" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="P27" s="3"/>
       <c r="Q27" s="3"/>
       <c r="R27" s="3"/>
       <c r="S27" s="3"/>
       <c r="T27" s="2" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="U27" s="3"/>
       <c r="V27" s="3"/>
@@ -4320,52 +4207,52 @@
     </row>
     <row r="28" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="B28" s="3"/>
       <c r="C28" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>27</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="K28" s="3"/>
       <c r="L28" s="2" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="O28" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="P28" s="3"/>
       <c r="Q28" s="3"/>
       <c r="R28" s="3"/>
       <c r="S28" s="3"/>
       <c r="T28" s="2" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="U28" s="3"/>
       <c r="V28" s="3"/>
@@ -4374,55 +4261,55 @@
     </row>
     <row r="29" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="B29" s="3"/>
       <c r="C29" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>27</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="K29" s="3"/>
       <c r="L29" s="2" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="O29" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="P29" s="3"/>
       <c r="Q29" s="3"/>
       <c r="R29" s="3"/>
       <c r="S29" s="3"/>
       <c r="T29" s="2" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="U29" s="2" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="V29" s="3"/>
       <c r="W29" s="3"/>
@@ -4430,55 +4317,55 @@
     </row>
     <row r="30" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="B30" s="3"/>
       <c r="C30" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>27</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="K30" s="3"/>
       <c r="L30" s="2" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="O30" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="P30" s="3"/>
       <c r="Q30" s="3"/>
       <c r="R30" s="3"/>
       <c r="S30" s="3"/>
       <c r="T30" s="2" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="U30" s="2" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="V30" s="3"/>
       <c r="W30" s="3"/>
@@ -4486,55 +4373,55 @@
     </row>
     <row r="31" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>27</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="K31" s="3"/>
       <c r="L31" s="2" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="N31" s="2" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="O31" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="P31" s="3"/>
       <c r="Q31" s="3"/>
       <c r="R31" s="3"/>
       <c r="S31" s="3"/>
       <c r="T31" s="2" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="U31" s="2" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="V31" s="3"/>
       <c r="W31" s="3"/>
@@ -4542,55 +4429,55 @@
     </row>
     <row r="32" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="B32" s="3"/>
       <c r="C32" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>27</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="K32" s="3"/>
       <c r="L32" s="2" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="M32" s="2" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="N32" s="2" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="O32" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="P32" s="3"/>
       <c r="Q32" s="3"/>
       <c r="R32" s="3"/>
       <c r="S32" s="3"/>
       <c r="T32" s="2" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="U32" s="2" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="V32" s="3"/>
       <c r="W32" s="3"/>
@@ -4598,55 +4485,55 @@
     </row>
     <row r="33" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="B33" s="3"/>
       <c r="C33" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>27</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="K33" s="3"/>
       <c r="L33" s="2" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="M33" s="2" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="N33" s="2" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="O33" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="P33" s="3"/>
       <c r="Q33" s="3"/>
       <c r="R33" s="3"/>
       <c r="S33" s="3"/>
       <c r="T33" s="2" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="U33" s="2" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="V33" s="3"/>
       <c r="W33" s="3"/>
@@ -4654,55 +4541,55 @@
     </row>
     <row r="34" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="B34" s="3"/>
       <c r="C34" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>27</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="K34" s="3"/>
       <c r="L34" s="2" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="N34" s="2" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="O34" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="P34" s="3"/>
       <c r="Q34" s="3"/>
       <c r="R34" s="3"/>
       <c r="S34" s="3"/>
       <c r="T34" s="2" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="U34" s="2" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="V34" s="3"/>
       <c r="W34" s="3"/>
@@ -4710,55 +4597,55 @@
     </row>
     <row r="35" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="B35" s="3"/>
       <c r="C35" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>27</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="K35" s="3"/>
       <c r="L35" s="2" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="M35" s="2" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="N35" s="2" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="O35" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="P35" s="3"/>
       <c r="Q35" s="3"/>
       <c r="R35" s="3"/>
       <c r="S35" s="3"/>
       <c r="T35" s="2" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="U35" s="2" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="V35" s="3"/>
       <c r="W35" s="3"/>
@@ -4766,55 +4653,55 @@
     </row>
     <row r="36" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="2" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="B36" s="3"/>
       <c r="C36" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>27</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="K36" s="3"/>
       <c r="L36" s="2" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="N36" s="2" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="O36" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="P36" s="3"/>
       <c r="Q36" s="3"/>
       <c r="R36" s="3"/>
       <c r="S36" s="3"/>
       <c r="T36" s="2" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="U36" s="2" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="V36" s="3"/>
       <c r="W36" s="3"/>
@@ -4822,55 +4709,55 @@
     </row>
     <row r="37" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="2" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="B37" s="3"/>
       <c r="C37" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>27</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="K37" s="3"/>
       <c r="L37" s="2" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="N37" s="2" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="O37" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="P37" s="3"/>
       <c r="Q37" s="3"/>
       <c r="R37" s="3"/>
       <c r="S37" s="3"/>
       <c r="T37" s="2" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="U37" s="2" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="V37" s="3"/>
       <c r="W37" s="3"/>
@@ -4878,55 +4765,55 @@
     </row>
     <row r="38" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="2" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="B38" s="3"/>
       <c r="C38" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>27</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="K38" s="3"/>
       <c r="L38" s="2" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="M38" s="2" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="N38" s="2" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="O38" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="P38" s="3"/>
       <c r="Q38" s="3"/>
       <c r="R38" s="3"/>
       <c r="S38" s="3"/>
       <c r="T38" s="2" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="U38" s="2" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="V38" s="3"/>
       <c r="W38" s="3"/>
@@ -4934,55 +4821,55 @@
     </row>
     <row r="39" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="2" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="B39" s="3"/>
       <c r="C39" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>27</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="K39" s="3"/>
       <c r="L39" s="2" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="M39" s="2" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="N39" s="2" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="O39" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="2" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="U39" s="2" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
@@ -4990,55 +4877,55 @@
     </row>
     <row r="40" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="2" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="B40" s="3"/>
       <c r="C40" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>27</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="K40" s="3"/>
       <c r="L40" s="2" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="M40" s="2" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="N40" s="2" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="O40" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="2" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="U40" s="2" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
@@ -5046,52 +4933,52 @@
     </row>
     <row r="41" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="2" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="B41" s="3"/>
       <c r="C41" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>27</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="K41" s="3"/>
       <c r="L41" s="2" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="M41" s="2" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="N41" s="2" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="O41" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="P41" s="3"/>
       <c r="Q41" s="3"/>
       <c r="R41" s="3"/>
       <c r="S41" s="3"/>
       <c r="T41" s="2" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="U41" s="3"/>
       <c r="V41" s="3"/>
@@ -5100,48 +4987,48 @@
     </row>
     <row r="42" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="2" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="B42" s="3"/>
       <c r="C42" s="2" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>27</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="I42" s="3"/>
       <c r="J42" s="3"/>
       <c r="K42" s="3"/>
       <c r="L42" s="2" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="M42" s="2" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="N42" s="2" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="O42" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="P42" s="3"/>
       <c r="Q42" s="3"/>
       <c r="R42" s="3"/>
       <c r="S42" s="3"/>
       <c r="T42" s="2" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="U42" s="3"/>
       <c r="V42" s="3"/>
@@ -5150,55 +5037,55 @@
     </row>
     <row r="43" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="2" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="B43" s="3"/>
       <c r="C43" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>27</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="K43" s="3"/>
       <c r="L43" s="2" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="M43" s="2" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="N43" s="2" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="O43" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="P43" s="3"/>
       <c r="Q43" s="3"/>
       <c r="R43" s="3"/>
       <c r="S43" s="3"/>
       <c r="T43" s="2" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="U43" s="2" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="V43" s="3"/>
       <c r="W43" s="3"/>
@@ -5206,48 +5093,48 @@
     </row>
     <row r="44" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="2" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="B44" s="3"/>
       <c r="C44" s="2" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>27</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="I44" s="3"/>
       <c r="J44" s="3"/>
       <c r="K44" s="3"/>
       <c r="L44" s="2" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="M44" s="2" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="N44" s="2" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="O44" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="P44" s="3"/>
       <c r="Q44" s="3"/>
       <c r="R44" s="3"/>
       <c r="S44" s="3"/>
       <c r="T44" s="2" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="U44" s="3"/>
       <c r="V44" s="3"/>
@@ -5256,48 +5143,48 @@
     </row>
     <row r="45" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="2" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="B45" s="3"/>
       <c r="C45" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>27</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="I45" s="3"/>
       <c r="J45" s="3"/>
       <c r="K45" s="3"/>
       <c r="L45" s="2" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="M45" s="2" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="N45" s="2" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="O45" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="P45" s="3"/>
       <c r="Q45" s="3"/>
       <c r="R45" s="3"/>
       <c r="S45" s="3"/>
       <c r="T45" s="2" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="U45" s="3"/>
       <c r="V45" s="3"/>
@@ -5306,55 +5193,55 @@
     </row>
     <row r="46" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="2" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="B46" s="3"/>
       <c r="C46" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>27</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="K46" s="3"/>
       <c r="L46" s="2" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="M46" s="2" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="N46" s="2" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="O46" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="P46" s="3"/>
       <c r="Q46" s="3"/>
       <c r="R46" s="3"/>
       <c r="S46" s="3"/>
       <c r="T46" s="2" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="U46" s="2" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="V46" s="3"/>
       <c r="W46" s="3"/>
@@ -5362,55 +5249,55 @@
     </row>
     <row r="47" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="2" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="B47" s="3"/>
       <c r="C47" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>27</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="K47" s="3"/>
       <c r="L47" s="2" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="M47" s="2" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="N47" s="2" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="O47" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="P47" s="3"/>
       <c r="Q47" s="3"/>
       <c r="R47" s="3"/>
       <c r="S47" s="3"/>
       <c r="T47" s="2" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="U47" s="2" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="V47" s="3"/>
       <c r="W47" s="3"/>
@@ -5418,55 +5305,55 @@
     </row>
     <row r="48" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="2" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="B48" s="3"/>
       <c r="C48" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>27</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="K48" s="3"/>
       <c r="L48" s="2" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="M48" s="2" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="N48" s="2" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="O48" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="P48" s="3"/>
       <c r="Q48" s="3"/>
       <c r="R48" s="3"/>
       <c r="S48" s="3"/>
       <c r="T48" s="2" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="U48" s="2" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="V48" s="3"/>
       <c r="W48" s="3"/>
@@ -5474,55 +5361,55 @@
     </row>
     <row r="49" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="2" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="B49" s="3"/>
       <c r="C49" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>27</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="K49" s="3"/>
       <c r="L49" s="2" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="M49" s="2" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="N49" s="2" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="O49" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="P49" s="3"/>
       <c r="Q49" s="3"/>
       <c r="R49" s="3"/>
       <c r="S49" s="3"/>
       <c r="T49" s="2" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="U49" s="2" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="V49" s="3"/>
       <c r="W49" s="3"/>
@@ -5530,55 +5417,55 @@
     </row>
     <row r="50" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="2" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="B50" s="3"/>
       <c r="C50" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>27</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="K50" s="3"/>
       <c r="L50" s="2" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="M50" s="2" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="N50" s="2" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="O50" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="P50" s="3"/>
       <c r="Q50" s="3"/>
       <c r="R50" s="3"/>
       <c r="S50" s="3"/>
       <c r="T50" s="2" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="U50" s="2" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="V50" s="3"/>
       <c r="W50" s="3"/>
@@ -5586,55 +5473,55 @@
     </row>
     <row r="51" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="2" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="B51" s="3"/>
       <c r="C51" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>27</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="K51" s="3"/>
       <c r="L51" s="2" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="M51" s="2" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="N51" s="2" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="O51" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="P51" s="3"/>
       <c r="Q51" s="3"/>
       <c r="R51" s="3"/>
       <c r="S51" s="3"/>
       <c r="T51" s="2" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="U51" s="2" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="V51" s="3"/>
       <c r="W51" s="3"/>
@@ -5642,55 +5529,55 @@
     </row>
     <row r="52" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="2" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="B52" s="3"/>
       <c r="C52" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>27</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="K52" s="3"/>
       <c r="L52" s="2" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="M52" s="2" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="N52" s="2" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="O52" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="P52" s="3"/>
       <c r="Q52" s="3"/>
       <c r="R52" s="3"/>
       <c r="S52" s="3"/>
       <c r="T52" s="2" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="U52" s="2" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="V52" s="3"/>
       <c r="W52" s="3"/>
@@ -5698,55 +5585,55 @@
     </row>
     <row r="53" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="2" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="B53" s="3"/>
       <c r="C53" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>27</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="K53" s="3"/>
       <c r="L53" s="2" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="M53" s="2" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="N53" s="2" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="O53" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="P53" s="3"/>
       <c r="Q53" s="3"/>
       <c r="R53" s="3"/>
       <c r="S53" s="3"/>
       <c r="T53" s="2" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="U53" s="2" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="V53" s="3"/>
       <c r="W53" s="3"/>
@@ -5754,55 +5641,55 @@
     </row>
     <row r="54" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="2" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="B54" s="3"/>
       <c r="C54" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>27</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="K54" s="3"/>
       <c r="L54" s="2" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="M54" s="2" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="N54" s="2" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="O54" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="P54" s="3"/>
       <c r="Q54" s="3"/>
       <c r="R54" s="3"/>
       <c r="S54" s="3"/>
       <c r="T54" s="2" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="U54" s="2" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="V54" s="3"/>
       <c r="W54" s="3"/>
@@ -5810,55 +5697,55 @@
     </row>
     <row r="55" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="2" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="B55" s="3"/>
       <c r="C55" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>27</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="K55" s="3"/>
       <c r="L55" s="2" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="M55" s="2" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="N55" s="2" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="O55" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="2" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="U55" s="2" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
@@ -5866,45 +5753,45 @@
     </row>
     <row r="56" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="2" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="B56" s="3"/>
       <c r="C56" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>27</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="K56" s="3"/>
       <c r="L56" s="2" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="M56" s="2" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="N56" s="2" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="O56" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
@@ -5918,45 +5805,45 @@
     </row>
     <row r="57" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="2" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="B57" s="3"/>
       <c r="C57" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>27</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="K57" s="3"/>
       <c r="L57" s="2" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="M57" s="2" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="N57" s="2" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="O57" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="P57" s="3"/>
       <c r="Q57" s="3"/>
@@ -5970,45 +5857,45 @@
     </row>
     <row r="58" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="2" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="B58" s="3"/>
       <c r="C58" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>27</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="K58" s="3"/>
       <c r="L58" s="2" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="M58" s="2" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="N58" s="2" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="O58" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="P58" s="3"/>
       <c r="Q58" s="3"/>
@@ -6022,45 +5909,45 @@
     </row>
     <row r="59" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="2" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="B59" s="3"/>
       <c r="C59" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>27</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="K59" s="3"/>
       <c r="L59" s="2" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="M59" s="2" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="N59" s="2" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="O59" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="P59" s="3"/>
       <c r="Q59" s="3"/>
@@ -6074,7 +5961,7 @@
     </row>
     <row r="60" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="2" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="B60" s="3"/>
       <c r="C60" s="15" t="n">
@@ -6091,14 +5978,14 @@
       <c r="J60" s="3"/>
       <c r="K60" s="3"/>
       <c r="L60" s="2" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="M60" s="2" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="N60" s="3"/>
       <c r="O60" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="P60" s="3"/>
       <c r="Q60" s="3"/>
@@ -6112,7 +5999,7 @@
     </row>
     <row r="61" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="2" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="B61" s="3"/>
       <c r="C61" s="15" t="n">
@@ -6129,14 +6016,14 @@
       <c r="J61" s="3"/>
       <c r="K61" s="3"/>
       <c r="L61" s="2" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="M61" s="2" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="N61" s="3"/>
       <c r="O61" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="P61" s="3"/>
       <c r="Q61" s="3"/>
@@ -6150,42 +6037,42 @@
     </row>
     <row r="62" customFormat="false" ht="15.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="H62" s="0"/>
       <c r="I62" s="1" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="M62" s="1" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="N62" s="0"/>
       <c r="O62" s="1" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="P62" s="16" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="Q62" s="16" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="S62" s="0"/>
       <c r="T62" s="0"/>
@@ -6194,42 +6081,42 @@
     </row>
     <row r="63" customFormat="false" ht="15.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="H63" s="0"/>
       <c r="I63" s="1" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="L63" s="1" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="M63" s="1" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="N63" s="0"/>
       <c r="O63" s="1" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="P63" s="17" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="Q63" s="17" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="S63" s="0"/>
       <c r="T63" s="0"/>
@@ -6238,42 +6125,42 @@
     </row>
     <row r="64" customFormat="false" ht="15.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="H64" s="0"/>
       <c r="I64" s="1" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="L64" s="1" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="M64" s="1" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="N64" s="0"/>
       <c r="O64" s="1" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="P64" s="16" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="Q64" s="17" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="S64" s="0"/>
       <c r="T64" s="0"/>
@@ -6282,39 +6169,39 @@
     </row>
     <row r="65" customFormat="false" ht="15.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="H65" s="0"/>
       <c r="I65" s="1" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="L65" s="1" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="M65" s="1" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="N65" s="0"/>
       <c r="O65" s="1" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="P65" s="17" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="Q65" s="17"/>
       <c r="S65" s="0"/>
@@ -6324,42 +6211,42 @@
     </row>
     <row r="66" customFormat="false" ht="15.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="H66" s="0"/>
       <c r="I66" s="1" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="L66" s="1" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="M66" s="1" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="N66" s="0"/>
       <c r="O66" s="1" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="P66" s="16" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="Q66" s="16" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="S66" s="0"/>
       <c r="T66" s="0"/>
@@ -6368,42 +6255,42 @@
     </row>
     <row r="67" customFormat="false" ht="15.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="H67" s="0"/>
       <c r="I67" s="1" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="L67" s="1" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="M67" s="1" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="N67" s="0"/>
       <c r="O67" s="1" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="P67" s="17" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="Q67" s="17" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="S67" s="0"/>
       <c r="T67" s="0"/>
@@ -6412,42 +6299,42 @@
     </row>
     <row r="68" customFormat="false" ht="15.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="H68" s="0"/>
       <c r="I68" s="1" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="L68" s="1" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="M68" s="1" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="N68" s="0"/>
       <c r="O68" s="1" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="P68" s="16" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="Q68" s="16" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="S68" s="0"/>
       <c r="T68" s="0"/>
@@ -6456,42 +6343,42 @@
     </row>
     <row r="69" customFormat="false" ht="15.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="5" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="H69" s="0"/>
       <c r="I69" s="1" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="L69" s="1" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="M69" s="1" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="N69" s="0"/>
       <c r="O69" s="1" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="P69" s="17" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="Q69" s="17" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="S69" s="0"/>
       <c r="T69" s="0"/>
@@ -6500,190 +6387,190 @@
     </row>
     <row r="70" customFormat="false" ht="15.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="L70" s="1" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="M70" s="1" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="O70" s="1" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="P70" s="16" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="Q70" s="16" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="L71" s="1" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="M71" s="1" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="O71" s="1" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="P71" s="17" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="Q71" s="17"/>
     </row>
     <row r="72" customFormat="false" ht="15.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="L72" s="1" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="M72" s="1" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="O72" s="1" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="P72" s="16" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="Q72" s="16" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="L73" s="1" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="M73" s="1" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="O73" s="1" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="P73" s="17" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="Q73" s="17" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="L74" s="1" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="M74" s="1" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="O74" s="1" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="P74" s="16" t="s">
+        <v>288</v>
+      </c>
+      <c r="Q74" s="16" t="s">
         <v>295</v>
-      </c>
-      <c r="Q74" s="16" t="s">
-        <v>302</v>
       </c>
     </row>
   </sheetData>
@@ -6702,142 +6589,107 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:R10"/>
+  <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M1" activeCellId="0" sqref="M1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="8.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="33.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="4.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="19.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="6.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="15.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="17.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="12.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="12.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="32.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="25.35"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="11.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="32.68"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="14.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="23.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="8.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="256" min="19" style="1" width="8.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="257" style="0" width="8.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="33.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="4.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="19.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="6.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="15.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="12.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="12.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="32.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="14.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="19.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="23.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="8.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="251" min="14" style="1" width="8.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="252" style="0" width="8.83"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>5</v>
+        <v>296</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>57</v>
+        <v>297</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>304</v>
+        <v>13</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>62</v>
+        <v>300</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="R1" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="C2" s="3"/>
+        <v>301</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="2" t="s">
+        <v>302</v>
+      </c>
       <c r="D2" s="2" t="s">
-        <v>309</v>
+        <v>18</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>18</v>
+        <v>303</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>312</v>
-      </c>
+        <v>305</v>
+      </c>
+      <c r="H2" s="3"/>
       <c r="I2" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="J2" s="3"/>
-      <c r="K2" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>315</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
       <c r="M2" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="6"/>
+      <c r="A3" s="7"/>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
@@ -6849,15 +6701,10 @@
       <c r="J3" s="7"/>
       <c r="K3" s="7"/>
       <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="7"/>
-      <c r="R3" s="8"/>
+      <c r="M3" s="8"/>
     </row>
     <row r="4" customFormat="false" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="9"/>
+      <c r="A4" s="10"/>
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
@@ -6869,15 +6716,10 @@
       <c r="J4" s="10"/>
       <c r="K4" s="10"/>
       <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="10"/>
-      <c r="R4" s="11"/>
+      <c r="M4" s="11"/>
     </row>
     <row r="5" customFormat="false" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="9"/>
+      <c r="A5" s="10"/>
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
       <c r="D5" s="10"/>
@@ -6889,15 +6731,10 @@
       <c r="J5" s="10"/>
       <c r="K5" s="10"/>
       <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="10"/>
-      <c r="P5" s="10"/>
-      <c r="Q5" s="10"/>
-      <c r="R5" s="11"/>
+      <c r="M5" s="11"/>
     </row>
     <row r="6" customFormat="false" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="9"/>
+      <c r="A6" s="10"/>
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
@@ -6909,15 +6746,10 @@
       <c r="J6" s="10"/>
       <c r="K6" s="10"/>
       <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="10"/>
-      <c r="P6" s="10"/>
-      <c r="Q6" s="10"/>
-      <c r="R6" s="11"/>
+      <c r="M6" s="11"/>
     </row>
     <row r="7" customFormat="false" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="9"/>
+      <c r="A7" s="10"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
@@ -6929,12 +6761,599 @@
       <c r="J7" s="10"/>
       <c r="K7" s="10"/>
       <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="10"/>
-      <c r="P7" s="10"/>
-      <c r="Q7" s="10"/>
-      <c r="R7" s="11"/>
+      <c r="M7" s="11"/>
+    </row>
+    <row r="8" customFormat="false" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="11"/>
+    </row>
+    <row r="9" customFormat="false" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="10"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="11"/>
+    </row>
+    <row r="10" customFormat="false" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="13"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="14"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:I10"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="32.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="4.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="19.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="6.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="15.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="9.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="8.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="9.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="13.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="251" min="10" style="1" width="8.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="252" style="0" width="8.83"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="F2" s="4" t="n">
+        <v>55133018</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" s="4" t="n">
+        <v>751</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="F3" s="4" t="n">
+        <v>25052943</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+    </row>
+    <row r="4" customFormat="false" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="8"/>
+    </row>
+    <row r="5" customFormat="false" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="10"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="11"/>
+    </row>
+    <row r="6" customFormat="false" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="10"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="11"/>
+    </row>
+    <row r="7" customFormat="false" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="10"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="11"/>
+    </row>
+    <row r="8" customFormat="false" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="11"/>
+    </row>
+    <row r="9" customFormat="false" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="10"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="11"/>
+    </row>
+    <row r="10" customFormat="false" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="13"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="14"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:R9"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="P1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="P1" activeCellId="0" sqref="P1"/>
+      <selection pane="bottomLeft" activeCell="Q2" activeCellId="0" sqref="Q2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="9.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="38.93"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="22.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="3.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="17.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="16.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="38.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="15.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="12.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="12.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="37.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="10.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="37.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="34.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="36.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="38.32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="9.64"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="258" min="19" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="259" style="0" width="8.59"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="C2" s="19"/>
+      <c r="D2" s="15" t="n">
+        <v>42370</v>
+      </c>
+      <c r="E2" s="3"/>
+      <c r="F2" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="J2" s="4" t="n">
+        <v>8000</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="L2" s="1" t="str">
+        <f aca="false">klasse!$A$67</f>
+        <v>9ae62035-10c1-486e-a1b4-cda28e6ce679</v>
+      </c>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="C3" s="19"/>
+      <c r="D3" s="15" t="n">
+        <v>42370</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="F3" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="J3" s="4" t="n">
+        <v>8100</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="L3" s="1" t="str">
+        <f aca="false">klasse!$A$67</f>
+        <v>9ae62035-10c1-486e-a1b4-cda28e6ce679</v>
+      </c>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="77.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3"/>
+      <c r="B4" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>331</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="I4" s="3"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3"/>
+      <c r="B5" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="C5" s="19"/>
+      <c r="D5" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="J5" s="4" t="n">
+        <v>8200</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="L5" s="1" t="str">
+        <f aca="false">klasse!$A$67</f>
+        <v>9ae62035-10c1-486e-a1b4-cda28e6ce679</v>
+      </c>
+      <c r="M5" s="3" t="n">
+        <v>33369696</v>
+      </c>
+      <c r="N5" s="1" t="str">
+        <f aca="false">klasse!$A$63</f>
+        <v>7c642b1c-535d-4461-b7f5-57951a23a998</v>
+      </c>
+      <c r="O5" s="3"/>
+      <c r="P5" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3"/>
+      <c r="B6" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" s="19"/>
+      <c r="D6" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>1112</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="L6" s="1" t="str">
+        <f aca="false">klasse!$A$70</f>
+        <v>ef100977-41b5-4354-8541-617ed023c676</v>
+      </c>
+      <c r="M6" s="3" t="n">
+        <v>33369696</v>
+      </c>
+      <c r="N6" s="1" t="str">
+        <f aca="false">klasse!$A$63</f>
+        <v>7c642b1c-535d-4461-b7f5-57951a23a998</v>
+      </c>
+      <c r="O6" s="3"/>
+      <c r="P6" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="6"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="8"/>
     </row>
     <row r="8" customFormat="false" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="9"/>
@@ -6957,693 +7376,6 @@
       <c r="R8" s="11"/>
     </row>
     <row r="9" customFormat="false" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="9"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="10"/>
-      <c r="P9" s="10"/>
-      <c r="Q9" s="10"/>
-      <c r="R9" s="11"/>
-    </row>
-    <row r="10" customFormat="false" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="12"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="13"/>
-      <c r="O10" s="13"/>
-      <c r="P10" s="13"/>
-      <c r="Q10" s="13"/>
-      <c r="R10" s="14"/>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:N10"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="8.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="32.68"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="4.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="19.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="6.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="15.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="17.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="32.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="25.35"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="11.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="9.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="8.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="9.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="13.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="256" min="15" style="1" width="8.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="257" style="0" width="8.83"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="13.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3"/>
-      <c r="B2" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="K2" s="4" t="n">
-        <v>55133018</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="M2" s="4" t="n">
-        <v>751</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3"/>
-      <c r="B3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="K3" s="4" t="n">
-        <v>25052943</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-    </row>
-    <row r="4" customFormat="false" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="6"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="8"/>
-    </row>
-    <row r="5" customFormat="false" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="9"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="11"/>
-    </row>
-    <row r="6" customFormat="false" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="9"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="11"/>
-    </row>
-    <row r="7" customFormat="false" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="9"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="11"/>
-    </row>
-    <row r="8" customFormat="false" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="9"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="11"/>
-    </row>
-    <row r="9" customFormat="false" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="9"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
-      <c r="N9" s="11"/>
-    </row>
-    <row r="10" customFormat="false" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="12"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="14"/>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:R9"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="L1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="L1" activeCellId="0" sqref="L1"/>
-      <selection pane="bottomLeft" activeCell="N6" activeCellId="0" sqref="N6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="9.64"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="38.93"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="22.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="3.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="17.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="16.68"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="38.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="15.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="12.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="12.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="37.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="10.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="37.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="34.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="36.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="38.32"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="9.64"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="258" min="19" style="1" width="11.52"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="13.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="15" t="n">
-        <v>42370</v>
-      </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="J2" s="4" t="n">
-        <v>8000</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="L2" s="1" t="str">
-        <f aca="false">klasse!$A$67</f>
-        <v>9ae62035-10c1-486e-a1b4-cda28e6ce679</v>
-      </c>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="C3" s="19"/>
-      <c r="D3" s="15" t="n">
-        <v>42370</v>
-      </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="J3" s="4" t="n">
-        <v>8100</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="L3" s="1" t="str">
-        <f aca="false">klasse!$A$67</f>
-        <v>9ae62035-10c1-486e-a1b4-cda28e6ce679</v>
-      </c>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="77.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3"/>
-      <c r="B4" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="C4" s="18" t="s">
-        <v>344</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="R4" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3"/>
-      <c r="B5" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="C5" s="19"/>
-      <c r="D5" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="J5" s="4" t="n">
-        <v>8200</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="L5" s="1" t="str">
-        <f aca="false">klasse!$A$67</f>
-        <v>9ae62035-10c1-486e-a1b4-cda28e6ce679</v>
-      </c>
-      <c r="M5" s="3" t="n">
-        <v>33369696</v>
-      </c>
-      <c r="N5" s="1" t="str">
-        <f aca="false">klasse!$A$63</f>
-        <v>7c642b1c-535d-4461-b7f5-57951a23a998</v>
-      </c>
-      <c r="O5" s="3"/>
-      <c r="P5" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="Q5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="R5" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3"/>
-      <c r="B6" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C6" s="19"/>
-      <c r="D6" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>1112</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="L6" s="1" t="str">
-        <f aca="false">klasse!$A$70</f>
-        <v>ef100977-41b5-4354-8541-617ed023c676</v>
-      </c>
-      <c r="M6" s="3" t="n">
-        <v>33369696</v>
-      </c>
-      <c r="N6" s="1" t="str">
-        <f aca="false">klasse!$A$63</f>
-        <v>7c642b1c-535d-4461-b7f5-57951a23a998</v>
-      </c>
-      <c r="O6" s="3"/>
-      <c r="P6" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="Q6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="R6" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="6"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="8"/>
-    </row>
-    <row r="8" customFormat="false" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="9"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="10"/>
-      <c r="P8" s="10"/>
-      <c r="Q8" s="10"/>
-      <c r="R8" s="11"/>
-    </row>
-    <row r="9" customFormat="false" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="12"/>
       <c r="B9" s="13"/>
       <c r="C9" s="13"/>
